--- a/biology/Biochimie/Immunoglobuline_anti-D/Immunoglobuline_anti-D.xlsx
+++ b/biology/Biochimie/Immunoglobuline_anti-D/Immunoglobuline_anti-D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les immunoglobulines humaines anti-Rho (D) sont un médicament dérivé du sang, c’est-à-dire préparé à partir du sang de donneurs, utilisé pour prévenir la sensibilisation maternelle à l'antigène Rhésus D (RH1) présent à la surface des érythrocytes du fœtus (c'est-à-dire pour prévenir la maladie hémolytique du nouveau-né). C'est une solution d'IgG anti-D (anti-RH1), qui se lie aux cellules Rh positives fœtales présentes dans la circulation maternelle. Cela empêche l'activation des lymphocytes B et la formation de cellules mémoire et conduit donc à l'immunisation.
 Il y a actuellement des recherches sur la production d'anti-D par des plantes transgéniques.
-Ils font partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[1].
+Ils font partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
